--- a/reports/отчет.xlsx
+++ b/reports/отчет.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,10 +423,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,20 +439,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Время</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Имя</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Реальное имя</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Голоса</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>Вид оплаты</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Статус</t>
         </is>
@@ -464,13 +476,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Viacheslav</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Слава</t>
         </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +501,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Daria Goltsova</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Дарья</t>
         </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +526,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Dronte</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +551,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Edgar</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Эдгар</t>
         </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +576,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Роман П</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Роман</t>
         </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -549,13 +601,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Anya Vilkova</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Аня</t>
         </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -566,13 +626,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Polina Matveeva</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Полина</t>
         </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -583,13 +651,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Polina Matveeva [2]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Полина</t>
         </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -600,13 +676,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Polina Matveeva [3]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Полина</t>
         </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -617,13 +701,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Anatoliy Kudrin</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Толя</t>
         </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +726,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Kirill Kriukov</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -651,13 +751,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Kirill Kriukov [2]</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -668,13 +776,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Владимир Александрович</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Владимир</t>
         </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -685,13 +801,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Ivan</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Ваня</t>
         </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -702,13 +826,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Sergey Tkachuk</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -719,13 +851,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Edgar</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Эдгар</t>
         </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -736,13 +876,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Anatoliy Kudrin</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Толя</t>
         </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +901,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Kirill Kriukov</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -770,13 +926,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Kirill Kriukov [2]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -787,13 +951,21 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Ivan</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Ваня</t>
         </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -804,13 +976,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Равиль Хайруллин</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Равиль</t>
         </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -821,13 +1001,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Sergey Konstantinov</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -838,13 +1026,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Anna Kersilova</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Аня</t>
         </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -855,13 +1051,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Konstantin Podlesnyi</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Костя</t>
         </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -872,13 +1076,21 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Никита красивый</t>
         </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -889,13 +1101,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Anatoliy Kudrin [2]</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Толя</t>
         </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -906,13 +1126,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Daria Goltsova</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Дарья</t>
         </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -923,13 +1151,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>19:00-21:00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Dronte</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -940,13 +1176,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Dronte</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -957,13 +1201,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Anya Vilkova</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Аня</t>
         </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -974,13 +1226,21 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>19:00-21:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Anatoliy Kudrin</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Толя</t>
         </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -991,13 +1251,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Anatoliy Kudrin</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Толя</t>
         </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1008,13 +1276,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>19:00-21:00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Kirill Kriukov</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1025,13 +1301,21 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Kirill Kriukov</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1042,13 +1326,21 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Kirill Kriukov [2]</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1059,13 +1351,21 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>19:00-21:00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Ivan</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Ваня</t>
         </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1076,13 +1376,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Ivan</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Ваня</t>
         </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1093,13 +1401,21 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>19:00-21:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Равиль Хайруллин</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Равиль</t>
         </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1110,13 +1426,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Равиль Хайруллин</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Равиль</t>
         </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1127,13 +1451,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>19:00-21:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Sergey Konstantinov</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1144,13 +1476,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Sergey Konstantinov</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1161,13 +1501,21 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>19:00-21:00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Anna Kersilova</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Аня</t>
         </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1178,13 +1526,21 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Anna Kersilova</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Аня</t>
         </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1195,13 +1551,21 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>19:00-21:00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Konstantin Podlesnyi</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Костя</t>
         </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1212,13 +1576,21 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Konstantin Podlesnyi</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Костя</t>
         </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1229,13 +1601,21 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Артём А</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Артём</t>
         </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1246,13 +1626,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Lev Nikolsky</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Лев</t>
         </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1263,13 +1651,21 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Daria Goltsova</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Дарья</t>
         </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1280,13 +1676,21 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>Dronte</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1297,13 +1701,21 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>Polina Matveeva</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Полина</t>
         </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1314,13 +1726,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Polina Matveeva [2]</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Полина</t>
         </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1331,13 +1751,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>Polina Matveeva [3]</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Полина</t>
         </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1348,13 +1776,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>Anatoliy Kudrin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Толя</t>
         </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1365,13 +1801,21 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>Kirill Kriukov</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1382,13 +1826,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>Kirill Kriukov [2]</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1399,13 +1851,21 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>Владимир Александрович</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Владимир</t>
         </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1416,13 +1876,21 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>Sergey Tkachuk</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1433,13 +1901,21 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>Равиль Хайруллин</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Равиль</t>
         </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1450,13 +1926,21 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>Konstantin Podlesnyi</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Костя</t>
         </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1467,13 +1951,21 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>Артём А</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Артём</t>
         </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1484,13 +1976,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>Lev Nikolsky</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Лев</t>
         </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1501,13 +2001,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>Greg</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Гриша</t>
         </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1518,13 +2026,21 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>Anya Vilkova</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Аня</t>
         </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1535,13 +2051,21 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>Anatoliy Kudrin</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Толя</t>
         </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1552,13 +2076,21 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>Равиль Хайруллин</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Равиль</t>
         </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1569,13 +2101,21 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>Anna Kersilova</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Аня</t>
         </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1586,13 +2126,21 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>Konstantin Podlesnyi</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Костя</t>
         </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1603,13 +2151,21 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>Kniazev Sergei</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1620,13 +2176,21 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Никита красивый</t>
         </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1637,13 +2201,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>Anatoliy Kudrin [2]</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Толя</t>
         </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1654,13 +2226,21 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>Полина Зайцева</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Полина</t>
         </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1671,13 +2251,21 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>Kristina Demirtshyan</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Кристина</t>
         </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1688,13 +2276,21 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>Kristina Demirtshyan [2]</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Кристина</t>
         </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1705,13 +2301,21 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>22:00-00:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>Sergey</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Sergey</t>
         </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1722,13 +2326,21 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>Светлана 🦭</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Светлана</t>
         </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1739,13 +2351,21 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>Светлана 🦭</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Светлана</t>
         </is>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -1756,13 +2376,21 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>Светлана 🦭</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Светлана</t>
         </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -1773,13 +2401,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>Валерий</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Валерий</t>
         </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -1790,13 +2426,21 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>Валерий</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Валерий</t>
         </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -1807,13 +2451,21 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>Валерий</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Валерий</t>
         </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -1824,13 +2476,21 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>Nikita Shabalin</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Никита</t>
         </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1841,13 +2501,21 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>Олег Захаров</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Олег</t>
         </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1858,13 +2526,21 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>Ivan Nikolaev</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Ваня</t>
         </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1875,13 +2551,21 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>Andrey Beloborodov</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1892,13 +2576,21 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>Ruslan</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Руслан</t>
         </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1909,13 +2601,21 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>Alice Koshechkina</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Алиса</t>
         </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1926,13 +2626,21 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>Matvey</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>Матвей</t>
         </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1943,13 +2651,21 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>Narek Sargsyan</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Нарек</t>
         </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1960,13 +2676,21 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>Artur Hovakanyan</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Артур</t>
         </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1977,13 +2701,21 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>Natali</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Натали</t>
         </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1994,13 +2726,21 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>Արարատ Մարտիրոսյան</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Арарат</t>
         </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2011,13 +2751,21 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>Vanya</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Ваня</t>
         </is>
+      </c>
+      <c r="E93" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2028,13 +2776,21 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>Vanya</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Ваня</t>
         </is>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2045,13 +2801,21 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>Viacheslav</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Слава</t>
         </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2062,13 +2826,21 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>18:45-21:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>Viacheslav</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Слава</t>
         </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2079,13 +2851,21 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>Daria Goltsova</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Дарья</t>
         </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2096,13 +2876,21 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>Dronte</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Андрей</t>
         </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2113,13 +2901,21 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>Edgar</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Эдгар</t>
         </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2130,13 +2926,21 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>Ivan</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Ваня</t>
         </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2147,13 +2951,21 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>Равиль Хайруллин</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Равиль</t>
         </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2164,13 +2976,21 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>Sergey Konstantinov</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2181,13 +3001,21 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>18:45-21:00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>Sergey Konstantinov</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2198,13 +3026,21 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>Anna Kersilova</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Аня</t>
         </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2215,13 +3051,21 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>18:45-21:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>Anna Kersilova</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Аня</t>
         </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2232,13 +3076,21 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>Konstantin Podlesnyi</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Костя</t>
         </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2249,13 +3101,21 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>18:45-21:00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>Konstantin Podlesnyi</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Костя</t>
         </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2266,13 +3126,21 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>Артём А</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Артём</t>
         </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2283,13 +3151,21 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>18:45-21:00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>Артём А</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Артём</t>
         </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2300,13 +3176,21 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>Fedor Udalov</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Федя</t>
         </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2317,13 +3201,21 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>Volleyball Player #7</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>Volleyball</t>
         </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2334,13 +3226,21 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>21:00-00:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>Kniazev Sergei</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2351,13 +3251,21 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>18:45-21:00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>Leonid</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Лёня</t>
         </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2368,13 +3276,21 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>18:45-21:00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>Jek</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Женя</t>
         </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -2385,13 +3301,21 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>Daria Goltsova</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Дарья</t>
         </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -2402,13 +3326,21 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>Anya Vilkova</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Аня</t>
         </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -2419,13 +3351,21 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>Anatoliy Kudrin</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Толя</t>
         </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2436,13 +3376,21 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>Kirill Kriukov</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2453,13 +3401,21 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>Kirill Kriukov [2]</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -2470,13 +3426,21 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>Равиль Хайруллин</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>Равиль</t>
         </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2487,13 +3451,21 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>Sergey Konstantinov</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -2504,13 +3476,21 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>Konstantin Podlesnyi</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>Костя</t>
         </is>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2521,13 +3501,21 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>Артём А</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>Артём</t>
         </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -2538,13 +3526,21 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>Lev Nikolsky</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Лев</t>
         </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -2555,13 +3551,21 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>Kniazev Sergei</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2572,13 +3576,21 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>21:30-23:30</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>Davo Abrahamyan</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>Даво</t>
         </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -2589,30 +3601,46 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Халит сегодня не кринж</t>
+          <t>21:30-23:30</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Халит</t>
-        </is>
+          <t>Ivan Smirnov</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>пн 03.03</t>
+          <t>ср 05.03</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ivan Smirnov</t>
+          <t>22:00-00:00</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Иван</t>
-        </is>
+          <t>Dronte</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -2623,13 +3651,21 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Dronte</t>
+          <t>22:00-00:00</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Андрей</t>
-        </is>
+          <t>Anatoliy Kudrin</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Толя</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -2640,13 +3676,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Anatoliy Kudrin</t>
+          <t>22:00-00:00</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Толя</t>
-        </is>
+          <t>Kirill Kriukov</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Кирилл</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -2657,13 +3701,21 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Kirill Kriukov</t>
+          <t>22:00-00:00</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Кирилл</t>
-        </is>
+          <t>Равиль Хайруллин</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Равиль</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -2674,13 +3726,21 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Равиль Хайруллин</t>
+          <t>22:00-00:00</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Равиль</t>
-        </is>
+          <t>Konstantin Podlesnyi</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Костя</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -2691,13 +3751,21 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Konstantin Podlesnyi</t>
+          <t>22:00-00:00</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Костя</t>
-        </is>
+          <t>Kniazev Sergei</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -2708,13 +3776,21 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Kniazev Sergei</t>
+          <t>22:00-00:00</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Сергей</t>
-        </is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Никита красивый</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2725,13 +3801,21 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Халит сегодня не кринж</t>
+          <t>22:00-00:00</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Халит</t>
-        </is>
+          <t>Anatoliy Kudrin [2]</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Толя</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -2742,13 +3826,21 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>22:00-00:00</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Никита красивый</t>
-        </is>
+          <t>Stas Maltsev</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Стас</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -2759,55 +3851,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Anatoliy Kudrin [2]</t>
+          <t>22:00-00:00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Толя</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>ср 05.03</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Stas Maltsev</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Стас</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>ср 05.03</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
           <t>Noro Stambolyan</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>Норо</t>
         </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55 F56 F57 F58 F59 F60 F61 F62 F63 F64 F65 F66 F67 F68 F69 F70 F71 F72 F73 F74 F75 F76 F77 F78 F79 F80 F81 F82 F83 F84 F85 F86 F87 F88 F89 F90 F91 F92 F93 F94 F95 F96 F97 F98 F99 F100 F101 F102 F103 F104 F105 F106 F107 F108 F109 F110 F111 F112 F113 F114 F115 F116 F117 F118 F119 F120 F121 F122 F123 F124 F125 F126 F127 F128 F129 F130 F131 F132 F133 F134 F135 F136 F137" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"картой,наличкой"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70 E71 E72 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E86 E87 E88 E89 E90 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E129 E130 E131 E132 E133 E134 E135 E136 E137 E138 E139" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 G69 G70 G71 G72 G73 G74 G75 G76 G77 G78 G79 G80 G81 G82 G83 G84 G85 G86 G87 G88 G89 G90 G91 G92 G93 G94 G95 G96 G97 G98 G99 G100 G101 G102 G103 G104 G105 G106 G107 G108 G109 G110 G111 G112 G113 G114 G115 G116 G117 G118 G119 G120 G121 G122 G123 G124 G125 G126 G127 G128 G129 G130 G131 G132 G133 G134 G135 G136 G137" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Запрос оплаты,Оплачено,Отсутствовал"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2821,7 +3887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3212,38 +4278,38 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Халит сегодня не кринж</t>
+          <t>Ivan Smirnov</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Халит, привет!
-Подскажи, за игры в пн 03.03 и ср 05.03 картой оплачивал или наличкой?</t>
+          <t>Иван, привет!
+Подскажи, за игру в пн 03.03 картой оплачивал или наличкой?</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ivan Smirnov</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Иван, привет!
-Подскажи, за игру в пн 03.03 картой оплачивал или наличкой?</t>
+          <t>Никита красивый, привет!
+Подскажи, за игры в ср 19.02, ср 26.02 и ср 05.03 картой оплачивал или наличкой?</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Anatoliy Kudrin [2]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Никита красивый, привет!
+          <t>Толя, привет!
 Подскажи, за игры в ср 19.02, ср 26.02 и ср 05.03 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3251,25 +4317,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Anatoliy Kudrin [2]</t>
+          <t>Полина Зайцева</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Толя, привет!
-Подскажи, за игры в ср 19.02, ср 26.02 и ср 05.03 картой оплачивал или наличкой?</t>
+          <t>Полина, привет!
+Подскажи, за игру в ср 26.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Полина Зайцева</t>
+          <t>Kristina Demirtshyan</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Полина, привет!
+          <t>Кристина, привет!
 Подскажи, за игру в ср 26.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3277,7 +4343,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kristina Demirtshyan</t>
+          <t>Kristina Demirtshyan [2]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3290,12 +4356,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kristina Demirtshyan [2]</t>
+          <t>Sergey</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Кристина, привет!
+          <t>Sergey, привет!
 Подскажи, за игру в ср 26.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3303,25 +4369,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sergey</t>
+          <t>Stas Maltsev</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sergey, привет!
-Подскажи, за игру в ср 26.02 картой оплачивал или наличкой?</t>
+          <t>Стас, привет!
+Подскажи, за игру в ср 05.03 картой оплачивал или наличкой?</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Stas Maltsev</t>
+          <t>Noro Stambolyan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Стас, привет!
+          <t>Норо, привет!
 Подскажи, за игру в ср 05.03 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3329,51 +4395,53 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Noro Stambolyan</t>
+          <t>Светлана 🦭</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Норо, привет!
-Подскажи, за игру в ср 05.03 картой оплачивал или наличкой?</t>
+          <t>Светлана, привет!
+Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?
+Кстати, заметил, что у тебя на игру в чт 27.02 поставлено 3 голоса. Подскажи, у них тоже всё оплачено?</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Светлана 🦭</t>
+          <t>Валерий</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Светлана, привет!
-Подскажи, за игры в чт 27.02, чт 27.02 и чт 27.02 картой оплачивал или наличкой?</t>
+          <t>Валерий, привет!
+Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?
+Кстати, заметил, что у тебя на игру в чт 27.02 поставлено 3 голоса. Подскажи, у них тоже всё оплачено?</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Валерий</t>
+          <t>Nikita Shabalin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Валерий, привет!
-Подскажи, за игры в чт 27.02, чт 27.02 и чт 27.02 картой оплачивал или наличкой?</t>
+          <t>Никита, привет!
+Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nikita Shabalin</t>
+          <t>Олег Захаров</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Никита, привет!
+          <t>Олег, привет!
 Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3381,12 +4449,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Олег Захаров</t>
+          <t>Ivan Nikolaev</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Олег, привет!
+          <t>Ваня, привет!
 Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3394,12 +4462,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ivan Nikolaev</t>
+          <t>Andrey Beloborodov</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ваня, привет!
+          <t>Андрей, привет!
 Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3407,12 +4475,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Andrey Beloborodov</t>
+          <t>Ruslan</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Андрей, привет!
+          <t>Руслан, привет!
 Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3420,12 +4488,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ruslan</t>
+          <t>Alice Koshechkina</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Руслан, привет!
+          <t>Алиса, привет!
 Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3433,12 +4501,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Alice Koshechkina</t>
+          <t>Matvey</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Алиса, привет!
+          <t>Матвей, привет!
 Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3446,12 +4514,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Matvey</t>
+          <t>Narek Sargsyan</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Матвей, привет!
+          <t>Нарек, привет!
 Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3459,12 +4527,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Narek Sargsyan</t>
+          <t>Artur Hovakanyan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Нарек, привет!
+          <t>Артур, привет!
 Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3472,12 +4540,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Artur Hovakanyan</t>
+          <t>Natali</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Артур, привет!
+          <t>Натали, привет!
 Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3485,12 +4553,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Natali</t>
+          <t>Արարատ Մարտիրոսյան</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Натали, привет!
+          <t>Арарат, привет!
 Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
         </is>
       </c>
@@ -3498,26 +4566,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Արարատ Մարտիրոսյան</t>
+          <t>Vanya</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Арарат, привет!
-Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Vanya</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
           <t>Ваня, привет!
-Подскажи, за игры в чт 27.02 и чт 27.02 картой оплачивал или наличкой?</t>
+Подскажи, за игру в чт 27.02 картой оплачивал или наличкой?
+Кстати, заметил, что у тебя на игру в чт 27.02 поставлено 2 голоса. Подскажи, у них тоже всё оплачено?</t>
         </is>
       </c>
     </row>
